--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2281,6 +2281,28 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Incompleto</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PS3</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2303,6 +2303,28 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Completo</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PS3</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Platinado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2325,6 +2325,28 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Incompleto</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Platinado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2347,6 +2347,28 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Incompleto</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Zerar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2369,6 +2369,28 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Incompleto</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PS3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Zerar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2391,6 +2391,28 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Incompleto</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Outro</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Zerar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,6 +2413,28 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Completo</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PS5</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Platinado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2435,6 +2435,28 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Incompleto</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PS3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Zerar</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,6 +2215,28 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Teste Jogo PC</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Completo</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/jogos.xlsx
+++ b/jogos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2193,6 +2193,28 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>teste de jogo ps5</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Completo</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PS5</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Concluído</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
